--- a/PCBDesign/AirLoRaV3_PCBDesign/airlora-kicad.xlsx
+++ b/PCBDesign/AirLoRaV3_PCBDesign/airlora-kicad.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work at AI Farm\Project\AirLoRaV3Git\AirLoRaV3\PCBDesign\AirLoRaV3_PCBDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C68011-91D6-4FE9-A42E-DAA31F9DE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD3E93-1FE9-4472-B36C-2A1112B5C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airlora-kicad" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1315,7 +1326,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
